--- a/Adult Income with the sample of 1k copy/Performance_metrics/model_perf_metrics_merged_only_with_cfs__200_300__1_2_3_5.xlsx
+++ b/Adult Income with the sample of 1k copy/Performance_metrics/model_perf_metrics_merged_only_with_cfs__200_300__1_2_3_5.xlsx
@@ -502,10 +502,10 @@
         <v>705</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6346153846153846</v>
+        <v>0.6095238095238096</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7431681485355648</v>
+        <v>0.7311715481171548</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -536,10 +536,10 @@
         <v>705</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3218390804597701</v>
+        <v>0.6095238095238096</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5905465481171548</v>
+        <v>0.7311715481171548</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -570,10 +570,10 @@
         <v>200</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.4827586206896551</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5145135983263598</v>
+        <v>0.6945279811715481</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -604,10 +604,10 @@
         <v>200</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1265822784810126</v>
+        <v>0.4662576687116564</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5181419979079498</v>
+        <v>0.6692599372384938</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -638,10 +638,10 @@
         <v>200</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.4976076555023923</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5541317991631799</v>
+        <v>0.711689330543933</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="G7" t="n">
-        <v>0.131578947368421</v>
+        <v>0.4694835680751174</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5244181485355648</v>
+        <v>0.6835120292887029</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>200</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1282051282051282</v>
+        <v>0.5234899328859061</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5202340481171548</v>
+        <v>0.7084531903765691</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>200</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1038961038961039</v>
+        <v>0.4914285714285714</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5124215481171548</v>
+        <v>0.6936780857740585</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>200</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08108108108108107</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5087931485355649</v>
+        <v>0.5966265690376569</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -808,10 +808,10 @@
         <v>200</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1</v>
+        <v>0.3516483516483517</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5061453974895397</v>
+        <v>0.5700836820083682</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>200</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1975308641975309</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5436715481171548</v>
+        <v>0.5878987970711297</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>200</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5145135983263598</v>
+        <v>0.7504576359832635</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>200</v>
       </c>
       <c r="G14" t="n">
-        <v>0.175</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5358590481171548</v>
+        <v>0.7380360878661087</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>200</v>
       </c>
       <c r="G15" t="n">
-        <v>0.228310502283105</v>
+        <v>0.4587155963302752</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4233459728033473</v>
+        <v>0.6730517782426779</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -978,10 +978,10 @@
         <v>200</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1265822784810126</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5181419979079498</v>
+        <v>0.5536087866108786</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>200</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1126760563380282</v>
+        <v>0.5647058823529413</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5249738493723849</v>
+        <v>0.7536610878661089</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1046,10 +1046,10 @@
         <v>200</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.5513513513513514</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5</v>
+        <v>0.7519939853556485</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1080,10 +1080,10 @@
         <v>400</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2619047619047619</v>
+        <v>0.4712041884816753</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5671090481171548</v>
+        <v>0.6800143828451882</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>400</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08450704225352113</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5150692991631799</v>
+        <v>0.7655269351464435</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>400</v>
       </c>
       <c r="G21" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="H21" t="n">
-        <v>0.517161349372385</v>
+        <v>0.6869769874476988</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1182,10 +1182,10 @@
         <v>400</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1265822784810126</v>
+        <v>0.5100671140939598</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5181419979079498</v>
+        <v>0.698548640167364</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1216,10 +1216,10 @@
         <v>400</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.4568527918781725</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5228817991631799</v>
+        <v>0.6674620815899581</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>400</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2409638554216867</v>
+        <v>0.5625</v>
       </c>
       <c r="H24" t="n">
-        <v>0.5592965481171548</v>
+        <v>0.7226725941422594</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1284,10 +1284,10 @@
         <v>400</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1282051282051282</v>
+        <v>0.5251396648044693</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5202340481171548</v>
+        <v>0.7249280857740585</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1318,10 +1318,10 @@
         <v>400</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.53</v>
       </c>
       <c r="H26" t="n">
-        <v>0.5078125</v>
+        <v>0.7404223326359832</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -1352,10 +1352,10 @@
         <v>400</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1282051282051282</v>
+        <v>0.5203252032520326</v>
       </c>
       <c r="H27" t="n">
-        <v>0.5202340481171548</v>
+        <v>0.6935146443514645</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1386,10 +1386,10 @@
         <v>400</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1282051282051282</v>
+        <v>0.5496183206106871</v>
       </c>
       <c r="H28" t="n">
-        <v>0.5202340481171548</v>
+        <v>0.7163964435146444</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>400</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="H29" t="n">
-        <v>0.5145135983263598</v>
+        <v>0.5873430962343097</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -1454,10 +1454,10 @@
         <v>400</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1975308641975309</v>
+        <v>0.5153374233128835</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5436715481171548</v>
+        <v>0.7088781380753137</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>400</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="H31" t="n">
-        <v>0.536970449790795</v>
+        <v>0.7556223849372385</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1522,10 +1522,10 @@
         <v>400</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1282051282051282</v>
+        <v>0.5303867403314918</v>
       </c>
       <c r="H32" t="n">
-        <v>0.5202340481171548</v>
+        <v>0.7306485355648535</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -1556,10 +1556,10 @@
         <v>400</v>
       </c>
       <c r="G33" t="n">
-        <v>0.225</v>
+        <v>0.5</v>
       </c>
       <c r="H33" t="n">
-        <v>0.5556681485355648</v>
+        <v>0.6999542364016736</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>600</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1927710843373494</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5394874476987448</v>
+        <v>0.727706589958159</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>600</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1891891891891892</v>
+        <v>0.5310734463276836</v>
       </c>
       <c r="H35" t="n">
-        <v>0.548411349372385</v>
+        <v>0.7291121861924686</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>600</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1927710843373494</v>
+        <v>0.5430463576158939</v>
       </c>
       <c r="H36" t="n">
-        <v>0.5394874476987448</v>
+        <v>0.7240781903765691</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -1692,10 +1692,10 @@
         <v>600</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.5222222222222223</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5551124476987448</v>
+        <v>0.7228360355648534</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -1726,10 +1726,10 @@
         <v>600</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1066666666666667</v>
+        <v>0.5324675324675325</v>
       </c>
       <c r="H38" t="n">
-        <v>0.5166056485355648</v>
+        <v>0.717802039748954</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -1760,10 +1760,10 @@
         <v>600</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1095890410958904</v>
+        <v>0.4644549763033176</v>
       </c>
       <c r="H39" t="n">
-        <v>0.5207897489539749</v>
+        <v>0.6777915794979079</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -1794,10 +1794,10 @@
         <v>600</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1951219512195122</v>
+        <v>0.5464480874316939</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5415794979079498</v>
+        <v>0.7462735355648535</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>600</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1012658227848101</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="H41" t="n">
-        <v>0.5082374476987448</v>
+        <v>0.7494769874476988</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -1862,10 +1862,10 @@
         <v>600</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1066666666666667</v>
+        <v>0.5314685314685316</v>
       </c>
       <c r="H42" t="n">
-        <v>0.5166056485355648</v>
+        <v>0.7111009414225942</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -1896,10 +1896,10 @@
         <v>600</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1265822784810126</v>
+        <v>0.4895833333333333</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5181419979079498</v>
+        <v>0.6977314330543933</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -1930,10 +1930,10 @@
         <v>600</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1066666666666667</v>
+        <v>0.5494505494505494</v>
       </c>
       <c r="H44" t="n">
-        <v>0.5166056485355648</v>
+        <v>0.7483655857740585</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -1964,10 +1964,10 @@
         <v>600</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1282051282051282</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="H45" t="n">
-        <v>0.5202340481171548</v>
+        <v>0.7182269874476988</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -1998,10 +1998,10 @@
         <v>600</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1100917431192661</v>
+        <v>0.4880952380952381</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4652850418410042</v>
+        <v>0.6885133368200835</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -2032,10 +2032,10 @@
         <v>600</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1975308641975309</v>
+        <v>0.53</v>
       </c>
       <c r="H47" t="n">
-        <v>0.5436715481171548</v>
+        <v>0.7404223326359832</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -2066,10 +2066,10 @@
         <v>600</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1066666666666667</v>
+        <v>0.5513513513513514</v>
       </c>
       <c r="H48" t="n">
-        <v>0.5166056485355648</v>
+        <v>0.7519939853556485</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -2100,10 +2100,10 @@
         <v>1000</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1038961038961039</v>
+        <v>0.5698324022346368</v>
       </c>
       <c r="H49" t="n">
-        <v>0.5124215481171548</v>
+        <v>0.7645462866108786</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>1000</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2608695652173912</v>
+        <v>0.5251396648044693</v>
       </c>
       <c r="H50" t="n">
-        <v>0.5602771966527197</v>
+        <v>0.7249280857740585</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -2168,10 +2168,10 @@
         <v>1000</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1927710843373494</v>
+        <v>0.5108695652173912</v>
       </c>
       <c r="H51" t="n">
-        <v>0.5394874476987448</v>
+        <v>0.7144678347280334</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -2202,10 +2202,10 @@
         <v>1000</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.5058823529411766</v>
       </c>
       <c r="H52" t="n">
-        <v>0.5541317991631799</v>
+        <v>0.7041383368200836</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         <v>1000</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2608695652173912</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="H53" t="n">
-        <v>0.5602771966527197</v>
+        <v>0.7468292364016736</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -2270,10 +2270,10 @@
         <v>1000</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1282051282051282</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="H54" t="n">
-        <v>0.5202340481171548</v>
+        <v>0.6858655857740585</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>1000</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2528735632183908</v>
+        <v>0.5549132947976879</v>
       </c>
       <c r="H55" t="n">
-        <v>0.5608328974895397</v>
+        <v>0.7473849372384938</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -2338,10 +2338,10 @@
         <v>1000</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2325581395348837</v>
+        <v>0.5057471264367817</v>
       </c>
       <c r="H56" t="n">
-        <v>0.5530203974895397</v>
+        <v>0.7056746861924686</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -2372,10 +2372,10 @@
         <v>1000</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1518987341772152</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="H57" t="n">
-        <v>0.5280465481171548</v>
+        <v>0.7130622384937239</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -2406,10 +2406,10 @@
         <v>1000</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1066666666666667</v>
+        <v>0.5106382978723403</v>
       </c>
       <c r="H58" t="n">
-        <v>0.5166056485355648</v>
+        <v>0.7160041841004186</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -2440,10 +2440,10 @@
         <v>1000</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1159420289855072</v>
+        <v>0.5</v>
       </c>
       <c r="H59" t="n">
-        <v>0.4244246861924686</v>
+        <v>0.6953451882845189</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -2474,10 +2474,10 @@
         <v>1000</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1038961038961039</v>
+        <v>0.5411764705882353</v>
       </c>
       <c r="H60" t="n">
-        <v>0.5124215481171548</v>
+        <v>0.7338519874476988</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -2508,10 +2508,10 @@
         <v>1000</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1975308641975309</v>
+        <v>0.5310734463276836</v>
       </c>
       <c r="H61" t="n">
-        <v>0.5436715481171548</v>
+        <v>0.7291121861924686</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -2542,10 +2542,10 @@
         <v>1000</v>
       </c>
       <c r="G62" t="n">
-        <v>0.2168674698795181</v>
+        <v>0.5764705882352942</v>
       </c>
       <c r="H62" t="n">
-        <v>0.5493919979079498</v>
+        <v>0.7635656380753137</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -2576,10 +2576,10 @@
         <v>1000</v>
       </c>
       <c r="G63" t="n">
-        <v>0.2409638554216867</v>
+        <v>0.5434782608695653</v>
       </c>
       <c r="H63" t="n">
-        <v>0.5592965481171548</v>
+        <v>0.7441814853556485</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -2610,10 +2610,10 @@
         <v>300</v>
       </c>
       <c r="G64" t="n">
-        <v>0.2117647058823529</v>
+        <v>0.5454545454545455</v>
       </c>
       <c r="H64" t="n">
-        <v>0.5452078974895397</v>
+        <v>0.7210054916317992</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -2644,10 +2644,10 @@
         <v>300</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02985074626865672</v>
+        <v>0.4961240310077519</v>
       </c>
       <c r="H65" t="n">
-        <v>0.50362839958159</v>
+        <v>0.6809623430962343</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -2678,10 +2678,10 @@
         <v>300</v>
       </c>
       <c r="G66" t="n">
-        <v>0.02898550724637681</v>
+        <v>0.5625</v>
       </c>
       <c r="H66" t="n">
-        <v>0.4994442991631799</v>
+        <v>0.744867939330544</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         <v>300</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.5170068027210885</v>
       </c>
       <c r="H67" t="n">
-        <v>0.5078125</v>
+        <v>0.7027327405857741</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -2746,10 +2746,10 @@
         <v>300</v>
       </c>
       <c r="G68" t="n">
-        <v>0.2884615384615384</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="H68" t="n">
-        <v>0.5648862447698745</v>
+        <v>0.7126372907949791</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -2780,10 +2780,10 @@
         <v>300</v>
       </c>
       <c r="G69" t="n">
-        <v>0.2439024390243902</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="H69" t="n">
-        <v>0.5613885983263598</v>
+        <v>0.7274450836820082</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -2814,10 +2814,10 @@
         <v>300</v>
       </c>
       <c r="G70" t="n">
-        <v>0.1935483870967742</v>
+        <v>0.5325443786982248</v>
       </c>
       <c r="H70" t="n">
-        <v>0.3879118723849373</v>
+        <v>0.7260394874476988</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>300</v>
       </c>
       <c r="G71" t="n">
-        <v>0.2947368421052631</v>
+        <v>0.5430463576158939</v>
       </c>
       <c r="H71" t="n">
-        <v>0.5738101464435146</v>
+        <v>0.7240781903765691</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -2882,10 +2882,10 @@
         <v>300</v>
       </c>
       <c r="G72" t="n">
-        <v>0.02816901408450704</v>
+        <v>0.511904761904762</v>
       </c>
       <c r="H72" t="n">
-        <v>0.4952601987447699</v>
+        <v>0.7083224372384938</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>300</v>
       </c>
       <c r="G73" t="n">
-        <v>0.08108108108108107</v>
+        <v>0.5405405405405405</v>
       </c>
       <c r="H73" t="n">
-        <v>0.5087931485355649</v>
+        <v>0.7204497907949791</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -2950,10 +2950,10 @@
         <v>300</v>
       </c>
       <c r="G74" t="n">
-        <v>0.25</v>
+        <v>0.6216216216216217</v>
       </c>
       <c r="H74" t="n">
-        <v>0.5587408472803348</v>
+        <v>0.7798770920502092</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -2984,10 +2984,10 @@
         <v>300</v>
       </c>
       <c r="G75" t="n">
-        <v>0.2558139534883721</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="H75" t="n">
-        <v>0.5629249476987448</v>
+        <v>0.7195998953974895</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -3018,10 +3018,10 @@
         <v>300</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>0.5465838509316771</v>
       </c>
       <c r="H76" t="n">
-        <v>0.4832635983263598</v>
+        <v>0.7328713389121339</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -3052,10 +3052,10 @@
         <v>300</v>
       </c>
       <c r="G77" t="n">
-        <v>0.1265822784810126</v>
+        <v>0.4869565217391305</v>
       </c>
       <c r="H77" t="n">
-        <v>0.5181419979079498</v>
+        <v>0.6706328451882846</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -3086,10 +3086,10 @@
         <v>300</v>
       </c>
       <c r="G78" t="n">
-        <v>0.1095890410958904</v>
+        <v>0.4935064935064934</v>
       </c>
       <c r="H78" t="n">
-        <v>0.5207897489539749</v>
+        <v>0.6880883891213389</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -3120,10 +3120,10 @@
         <v>600</v>
       </c>
       <c r="G79" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H79" t="n">
-        <v>0.5541317991631799</v>
+        <v>0.7288179916317992</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -3154,10 +3154,10 @@
         <v>600</v>
       </c>
       <c r="G80" t="n">
-        <v>0.1038961038961039</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H80" t="n">
-        <v>0.5124215481171548</v>
+        <v>0.7371861924686194</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -3188,10 +3188,10 @@
         <v>600</v>
       </c>
       <c r="G81" t="n">
-        <v>0.1282051282051282</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="H81" t="n">
-        <v>0.5202340481171548</v>
+        <v>0.7265951882845189</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -3222,10 +3222,10 @@
         <v>600</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1951219512195122</v>
+        <v>0.5222929936305732</v>
       </c>
       <c r="H82" t="n">
-        <v>0.5415794979079498</v>
+        <v>0.711525889121339</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -3256,10 +3256,10 @@
         <v>600</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H83" t="n">
-        <v>0.5078125</v>
+        <v>0.757845188284519</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>600</v>
       </c>
       <c r="G84" t="n">
-        <v>0.1038961038961039</v>
+        <v>0.5652173913043479</v>
       </c>
       <c r="H84" t="n">
-        <v>0.5124215481171548</v>
+        <v>0.7639905857740585</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -3324,10 +3324,10 @@
         <v>600</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1298701298701299</v>
+        <v>0.5072463768115941</v>
       </c>
       <c r="H85" t="n">
-        <v>0.5223260983263598</v>
+        <v>0.6918475418410042</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -3358,10 +3358,10 @@
         <v>600</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1497326203208556</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="H86" t="n">
-        <v>0.3813415271966527</v>
+        <v>0.7023077928870293</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>600</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1797752808988764</v>
+        <v>0.4903225806451613</v>
       </c>
       <c r="H87" t="n">
-        <v>0.5269351464435146</v>
+        <v>0.685996338912134</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -3426,10 +3426,10 @@
         <v>600</v>
       </c>
       <c r="G88" t="n">
-        <v>0.119047619047619</v>
+        <v>0.524822695035461</v>
       </c>
       <c r="H88" t="n">
-        <v>0.5076817468619247</v>
+        <v>0.7053804916317992</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -3460,10 +3460,10 @@
         <v>600</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="H89" t="n">
-        <v>0.5078125</v>
+        <v>0.6786087866108786</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -3494,10 +3494,10 @@
         <v>600</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1081081081081081</v>
+        <v>0.5605095541401275</v>
       </c>
       <c r="H90" t="n">
-        <v>0.5186976987447699</v>
+        <v>0.741239539748954</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -3528,10 +3528,10 @@
         <v>600</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05172413793103448</v>
+        <v>0.48</v>
       </c>
       <c r="H91" t="n">
-        <v>0.420927039748954</v>
+        <v>0.6837735355648535</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>600</v>
       </c>
       <c r="G92" t="n">
-        <v>0.2608695652173912</v>
+        <v>0.5988700564971751</v>
       </c>
       <c r="H92" t="n">
-        <v>0.5602771966527197</v>
+        <v>0.7885394874476988</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -3596,10 +3596,10 @@
         <v>600</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.5060240963855422</v>
       </c>
       <c r="H93" t="n">
-        <v>0.5145135983263598</v>
+        <v>0.7026019874476988</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>900</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1038961038961039</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="H94" t="n">
-        <v>0.5124215481171548</v>
+        <v>0.7344076882845189</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -3664,10 +3664,10 @@
         <v>900</v>
       </c>
       <c r="G95" t="n">
-        <v>0.25</v>
+        <v>0.59375</v>
       </c>
       <c r="H95" t="n">
-        <v>0.5587408472803348</v>
+        <v>0.7424816945606695</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -3698,10 +3698,10 @@
         <v>900</v>
       </c>
       <c r="G96" t="n">
-        <v>0.131578947368421</v>
+        <v>0.5555555555555557</v>
       </c>
       <c r="H96" t="n">
-        <v>0.5244181485355648</v>
+        <v>0.7169521443514645</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -3732,10 +3732,10 @@
         <v>900</v>
       </c>
       <c r="G97" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.5507246376811593</v>
       </c>
       <c r="H97" t="n">
-        <v>0.515625</v>
+        <v>0.7215611924686193</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -3766,10 +3766,10 @@
         <v>900</v>
       </c>
       <c r="G98" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.5375</v>
       </c>
       <c r="H98" t="n">
-        <v>0.5238624476987448</v>
+        <v>0.7250588389121339</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -3800,10 +3800,10 @@
         <v>900</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1066666666666667</v>
+        <v>0.5696969696969697</v>
       </c>
       <c r="H99" t="n">
-        <v>0.5166056485355648</v>
+        <v>0.7542167887029287</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -3834,10 +3834,10 @@
         <v>900</v>
       </c>
       <c r="G100" t="n">
-        <v>0.1927710843373494</v>
+        <v>0.496</v>
       </c>
       <c r="H100" t="n">
-        <v>0.5394874476987448</v>
+        <v>0.6794259937238494</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -3868,10 +3868,10 @@
         <v>900</v>
       </c>
       <c r="G101" t="n">
-        <v>0.2298850574712644</v>
+        <v>0.6171428571428572</v>
       </c>
       <c r="H101" t="n">
-        <v>0.5509283472803348</v>
+        <v>0.8026281380753137</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -3902,10 +3902,10 @@
         <v>900</v>
       </c>
       <c r="G102" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.5093167701863354</v>
       </c>
       <c r="H102" t="n">
-        <v>0.5145135983263598</v>
+        <v>0.7031576882845189</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -3936,10 +3936,10 @@
         <v>900</v>
       </c>
       <c r="G103" t="n">
-        <v>0.08450704225352113</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="H103" t="n">
-        <v>0.5150692991631799</v>
+        <v>0.7380360878661087</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -3970,10 +3970,10 @@
         <v>900</v>
       </c>
       <c r="G104" t="n">
-        <v>0.1066666666666667</v>
+        <v>0.5696969696969697</v>
       </c>
       <c r="H104" t="n">
-        <v>0.5166056485355648</v>
+        <v>0.7542167887029287</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -4004,10 +4004,10 @@
         <v>900</v>
       </c>
       <c r="G105" t="n">
-        <v>0.1298701298701299</v>
+        <v>0.5588235294117648</v>
       </c>
       <c r="H105" t="n">
-        <v>0.5223260983263598</v>
+        <v>0.7257452928870293</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -4038,10 +4038,10 @@
         <v>900</v>
       </c>
       <c r="G106" t="n">
-        <v>0.2298850574712644</v>
+        <v>0.5847953216374269</v>
       </c>
       <c r="H106" t="n">
-        <v>0.5509283472803348</v>
+        <v>0.7713781380753137</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -4072,10 +4072,10 @@
         <v>900</v>
       </c>
       <c r="G107" t="n">
-        <v>0.2637362637362637</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="H107" t="n">
-        <v>0.5623692468619247</v>
+        <v>0.7687303870292888</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>900</v>
       </c>
       <c r="G108" t="n">
-        <v>0.2528735632183908</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="H108" t="n">
-        <v>0.5608328974895397</v>
+        <v>0.6848849372384938</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -4140,10 +4140,10 @@
         <v>1500</v>
       </c>
       <c r="G109" t="n">
-        <v>0.1927710843373494</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="H109" t="n">
-        <v>0.5394874476987448</v>
+        <v>0.7109701882845189</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -4174,10 +4174,10 @@
         <v>1500</v>
       </c>
       <c r="G110" t="n">
-        <v>0.2528735632183908</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="H110" t="n">
-        <v>0.5608328974895397</v>
+        <v>0.7684361924686193</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -4208,10 +4208,10 @@
         <v>1500</v>
       </c>
       <c r="G111" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.5205479452054794</v>
       </c>
       <c r="H111" t="n">
-        <v>0.5145135983263598</v>
+        <v>0.7048247907949791</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -4242,10 +4242,10 @@
         <v>1500</v>
       </c>
       <c r="G112" t="n">
-        <v>0.1346153846153846</v>
+        <v>0.6064516129032259</v>
       </c>
       <c r="H112" t="n">
-        <v>0.4856498430962343</v>
+        <v>0.775137290794979</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -4276,10 +4276,10 @@
         <v>1500</v>
       </c>
       <c r="G113" t="n">
-        <v>0.1282051282051282</v>
+        <v>0.5298013245033113</v>
       </c>
       <c r="H113" t="n">
-        <v>0.5202340481171548</v>
+        <v>0.7141736401673641</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -4310,10 +4310,10 @@
         <v>1500</v>
       </c>
       <c r="G114" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.5503355704697986</v>
       </c>
       <c r="H114" t="n">
-        <v>0.5551124476987448</v>
+        <v>0.7282622907949791</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -4344,10 +4344,10 @@
         <v>1500</v>
       </c>
       <c r="G115" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.4929577464788733</v>
       </c>
       <c r="H115" t="n">
-        <v>0.5145135983263598</v>
+        <v>0.6834793410041841</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -4378,10 +4378,10 @@
         <v>1500</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.5606060606060606</v>
       </c>
       <c r="H116" t="n">
-        <v>0.5078125</v>
+        <v>0.7242089435146444</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -4412,10 +4412,10 @@
         <v>1500</v>
       </c>
       <c r="G117" t="n">
-        <v>0.1066666666666667</v>
+        <v>0.5443037974683544</v>
       </c>
       <c r="H117" t="n">
-        <v>0.5166056485355648</v>
+        <v>0.7292429393305441</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -4446,10 +4446,10 @@
         <v>1500</v>
       </c>
       <c r="G118" t="n">
-        <v>0.2608695652173912</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H118" t="n">
-        <v>0.5602771966527197</v>
+        <v>0.752680439330544</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -4480,10 +4480,10 @@
         <v>1500</v>
       </c>
       <c r="G119" t="n">
-        <v>0.2608695652173912</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H119" t="n">
-        <v>0.5602771966527197</v>
+        <v>0.7371861924686194</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -4514,10 +4514,10 @@
         <v>1500</v>
       </c>
       <c r="G120" t="n">
-        <v>0.25</v>
+        <v>0.5696202531645569</v>
       </c>
       <c r="H120" t="n">
-        <v>0.5587408472803348</v>
+        <v>0.749052039748954</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -4548,10 +4548,10 @@
         <v>1500</v>
       </c>
       <c r="G121" t="n">
-        <v>0.2619047619047619</v>
+        <v>0.5359477124183006</v>
       </c>
       <c r="H121" t="n">
-        <v>0.5671090481171548</v>
+        <v>0.719894089958159</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -4582,10 +4582,10 @@
         <v>1500</v>
       </c>
       <c r="G122" t="n">
-        <v>0.1038961038961039</v>
+        <v>0.4720496894409938</v>
       </c>
       <c r="H122" t="n">
-        <v>0.5124215481171548</v>
+        <v>0.6734440376569037</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -4616,10 +4616,10 @@
         <v>1500</v>
       </c>
       <c r="G123" t="n">
-        <v>0.2528735632183908</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="H123" t="n">
-        <v>0.5608328974895397</v>
+        <v>0.7657884414225943</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
